--- a/docs/Peptides_package_protein_properties.xlsx
+++ b/docs/Peptides_package_protein_properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robi0916/Documents/University_of_Minnesota/Wackett_Lab/github/TARA-thiolases/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aed3d806ed7068fe/Documents/GitHub/TARA-thiolases/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39FF565-F91D-ED4B-B8CD-F7088198E683}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39FF565-F91D-ED4B-B8CD-F7088198E683}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11160" yWindow="960" windowWidth="14360" windowHeight="14180" xr2:uid="{DB3A08F3-9DBF-3E48-A759-355E66D2CD66}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15660" windowHeight="10200" xr2:uid="{DB3A08F3-9DBF-3E48-A759-355E66D2CD66}"/>
   </bookViews>
   <sheets>
     <sheet name="protein_descriptors" sheetId="1" r:id="rId1"/>
@@ -775,11 +775,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0708CC08-5AA4-1F4D-9477-BE93064CFF72}">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="34.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="83.5" style="2" customWidth="1"/>
@@ -787,27 +787,27 @@
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>103</v>
       </c>
@@ -818,7 +818,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="80" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>100</v>
       </c>
@@ -829,7 +829,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>97</v>
       </c>
@@ -840,7 +840,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>94</v>
       </c>
@@ -851,7 +851,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="62" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>91</v>
       </c>
@@ -862,7 +862,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="62" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>88</v>
       </c>
@@ -873,7 +873,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>85</v>
       </c>
@@ -881,7 +881,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>83</v>
       </c>
@@ -889,7 +889,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>81</v>
       </c>
@@ -897,7 +897,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="2" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" s="2" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>79</v>
       </c>
@@ -908,7 +908,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="2" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" s="2" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>77</v>
       </c>
@@ -919,7 +919,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="2" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" s="2" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>75</v>
       </c>
@@ -930,7 +930,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="2" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" s="2" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>73</v>
       </c>
@@ -941,7 +941,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="2" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" s="2" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>72</v>
       </c>
@@ -952,7 +952,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>69</v>
       </c>
@@ -963,7 +963,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>68</v>
       </c>
@@ -974,7 +974,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>67</v>
       </c>
@@ -985,7 +985,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>66</v>
       </c>
@@ -996,7 +996,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>65</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="62" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>62</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>60</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>51</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>49</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>48</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>47</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>42</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>37</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>36</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>33</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>31</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>29</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>27</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>25</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>23</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="62" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>20</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="62" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>18</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="62" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>16</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="62" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>14</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" ht="62" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>12</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" ht="62" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>10</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="62" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" ht="62" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>6</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>4</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" ht="62" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>2</v>
       </c>
